--- a/projects/tRNAseq_lib1/plots/manual_plots/sample_list.xlsx
+++ b/projects/tRNAseq_lib1/plots/manual_plots/sample_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/tRNA-charge-seq/projects/tRNAseq_lib1/plots/manual_plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23E6841-E743-3541-ABB6-834237942A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57058443-203B-2B4C-B96E-698DB490BFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24580" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3700" yWindow="460" windowWidth="24580" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="E55" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2945,7 +2945,7 @@
         <v>130</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -2986,7 +2986,7 @@
         <v>130</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -3027,7 +3027,7 @@
         <v>136</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3068,7 +3068,7 @@
         <v>136</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -3109,7 +3109,7 @@
         <v>140</v>
       </c>
       <c r="M48">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -3150,7 +3150,7 @@
         <v>140</v>
       </c>
       <c r="M49">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -3683,7 +3683,7 @@
         <v>158</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -3724,7 +3724,7 @@
         <v>158</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -3765,7 +3765,7 @@
         <v>164</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -3806,7 +3806,7 @@
         <v>164</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -3847,7 +3847,7 @@
         <v>168</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -3888,7 +3888,7 @@
         <v>168</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -3929,7 +3929,7 @@
         <v>175</v>
       </c>
       <c r="M68">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -3970,7 +3970,7 @@
         <v>175</v>
       </c>
       <c r="M69">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -4011,7 +4011,7 @@
         <v>179</v>
       </c>
       <c r="M70">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -4052,7 +4052,7 @@
         <v>179</v>
       </c>
       <c r="M71">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -4093,7 +4093,7 @@
         <v>185</v>
       </c>
       <c r="M72">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -4134,7 +4134,7 @@
         <v>185</v>
       </c>
       <c r="M73">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -4175,7 +4175,7 @@
         <v>189</v>
       </c>
       <c r="M74">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -4216,7 +4216,7 @@
         <v>189</v>
       </c>
       <c r="M75">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -4257,7 +4257,7 @@
         <v>195</v>
       </c>
       <c r="M76">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -4298,7 +4298,7 @@
         <v>195</v>
       </c>
       <c r="M77">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -4339,7 +4339,7 @@
         <v>199</v>
       </c>
       <c r="M78">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -4380,7 +4380,7 @@
         <v>199</v>
       </c>
       <c r="M79">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
